--- a/pilha/tabela.xlsx
+++ b/pilha/tabela.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t xml:space="preserve">algoritmo</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t xml:space="preserve">segmentation fault (core dumped)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bubblesort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004384s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.288644s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.282717s</t>
   </si>
 </sst>
 </file>
@@ -64,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,11 +98,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,12 +158,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,17 +187,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
   </cols>
   <sheetData>
@@ -252,9 +271,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
